--- a/result_pysr/equations_filter_data.xlsx
+++ b/result_pysr/equations_filter_data.xlsx
@@ -443,35 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>density*((0.59252316*LogP**2 - sin(log(0.0029894337*density*exp(LogP) + temperature)) - 0.95121527)**3 - 0.0918966)/(density**1.005 + 1.0e-16)</t>
+          <t>-7.05643826775383e-9*density*(0.0021344305*(2.25791105098098e-5*density**2*exp(2*LogP)) + temperature)**3*cos(LogP*1.0821357)**3/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>density*(tan(tan((density*exp(2.51725*LogP) + temperature**2)*(-2.9781722e-6)/exp(1.60607159455744*LogP**2))) + 0.08767497)/(density**1.005 + 1.0e-16)</t>
+          <t>-6.85698365161505e-9*density*(-(-1)*0.0021413371*density*exp(LogP) + temperature)**3*cos(LogP)**3/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3.67483085472592e-9*density*(-sqrt(density)*sin(MW - 0.9328978) - temperature)**3/(density**1.005 + 1.0e-16)</t>
+          <t>0.417025007922119*density*((LogP**2 - 0.00240533592406284*(density*0.12305519/(MW + TPSA**2) + temperature))**3 - 1.516338/(density/temperature + 1.5746955))/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>density*tan(-7.70665670262735e-9*(density/(MW**2 - 0.000418950067226124*(MW + TPSA)**4) + temperature/(exp(sin(LogP)**2) - 1*(-0.07737146)))**3)/(density**1.005 + 1.0e-16)</t>
+          <t>-6.32823732935906e-9*density*(-(-1)*0.0026254577*density*exp(LogP) + temperature)**3*cos(LogP)**3/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.3974370738911e-10*density*(-0.0004653728*MW*density*(LogP + 0.12975854) - temperature)**3*log(MW)**3/(density**1.005 + 1.0e-16)</t>
+          <t>density*(-0.705211356780106*(sin(2.95627676305506e-10*(-TPSA**3 + density)**2 + log(temperature)) + cos(LogP))**2 - 0.049367134)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
